--- a/data/OfficerStatusList.xlsx
+++ b/data/OfficerStatusList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">NRIC</t>
   </si>
@@ -55,13 +55,19 @@
     <t xml:space="preserve">Unsuccessful</t>
   </si>
   <si>
+    <t xml:space="preserve">Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia Breeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6543210I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1234567J</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Registered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6543210I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1234567J</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,11 +227,13 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -241,11 +249,13 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -258,7 +268,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
   </sheetData>

--- a/data/OfficerStatusList.xlsx
+++ b/data/OfficerStatusList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">NRIC</t>
   </si>
@@ -55,19 +55,10 @@
     <t xml:space="preserve">Unsuccessful</t>
   </si>
   <si>
-    <t xml:space="preserve">Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acacia Breeze</t>
-  </si>
-  <si>
     <t xml:space="preserve">S6543210I</t>
   </si>
   <si>
     <t xml:space="preserve">T1234567J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Registered</t>
   </si>
 </sst>
 </file>
@@ -175,7 +166,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="2" sqref="H3:H4 I4 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -209,7 +200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -224,16 +215,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -246,16 +233,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -268,9 +251,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
   </sheetData>

--- a/data/OfficerStatusList.xlsx
+++ b/data/OfficerStatusList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>NRIC</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>T1234567J</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Acacia Breeze</t>
   </si>
 </sst>
 </file>
@@ -217,10 +223,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
